--- a/app_list.xlsx
+++ b/app_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyguo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C46DA67-337C-4230-9986-634262F9060A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D80EA08-6BE5-44FB-BDC0-C48112C613A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BA3602A5-FAC8-48C9-B96A-02B337F47745}"/>
+    <workbookView xWindow="23880" yWindow="-1815" windowWidth="19440" windowHeight="15150" xr2:uid="{BA3602A5-FAC8-48C9-B96A-02B337F47745}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="1004">
   <si>
     <t>VRChat</t>
   </si>
@@ -646,13 +646,2404 @@
   </si>
   <si>
     <t>MYX: The Ultimate Virtual Party!</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7006/vrchat</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7266/rec-room</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7200/altspacevr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7253/bigscreen-beta</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/18/engage</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6767/vtime-xr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12101/vr-meeting-meynikara</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6639/meetinvr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12589/vrroom</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12670/undefeated-samurai</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5474/friends-moments</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1385/xana</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14124/monkeys-world</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4383/vprl-presents-life-and-death-moral-dilemmas</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7773/vrautismaltestbuild</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/2910/eyeora-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5525/we-meet-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5903/lets-connect-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5852/m-care-app</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4609/magecosmos</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3521/humanity-first-woman-in-space</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1741/vreak-meetings</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11134/wellgamers-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1216/vreak</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9985/blurred-minds-virtual-house-party</t>
+  </si>
+  <si>
+    <t>https://www.oculus.com/experiences/quest/2448060205267927/</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/392/pavlov-shack</t>
+  </si>
+  <si>
+    <t>https://www.oculus.com/experiences/quest/2215004568539258/?ranking_trace=112223915002952_2215004568539258_SKYLINEWEB_2a37c264-c14b-4086-94d1-5a89d1745be1&amp;utm_source=www.google.com&amp;utm_medium=oculusredirect</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7290/superhot-vr-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7223/synth-riders</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/2457/racket-nx-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13898/vrfs-football-soccer-simulator</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12574/gibbon-games</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13758/catos-vr-multiplayer-horror</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5952/trailbouncer-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13767/ateles</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13408/panamania</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12336/banana-chasers</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13371/omny-tag</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11963/vrnoid-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13666/slam</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13536/hex-vr-test</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14271/tycoon-pizza-cafe</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13315/monkey-day</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13747/joy-flight</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14209/stilt-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13897/chimp-chase</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13827/bean-tag</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13336/monkey-furters</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12911/human-touch-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7218/gravity-sketch</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6634/vzfit</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7297/epic-roller-coasters</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11087/alliance-xr-culture-gallery</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8860/3d-probox-virtual-museum</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5298/immersivelink-quest-2</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10923/digidrub-durgapuja</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11066/journey-to-the-land-of-the-sea</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14144/forbidden-city-journey</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11850/muzeul-abandonului-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11126/alexandria-port-of-worlds</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5911/jeommal-cave-vr-media-art</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5099/dynamic-spanish-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8106/train-360</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12292/cleopatra-pin-ball</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7032/morpheus-experiences</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10300/nostraverse</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5422/vr-speech-trainer</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12994/holy-fire-pilot-version</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11940/borondo-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15005/manasija-monastery-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11992/vrew-finnish-social-officekela-experience</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7020/carpet-store</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5437/agority-vr-space</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5756/crazyball</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5698/language-lab-prerelease-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7443/human-anatomy-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/333/nanome</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7219/mission-iss-quest</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/393/3d-organon-vr-anatomy</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6241/futuclass-education</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12702/fire-protection-training</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12280/virtual-orator</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13660/galveston-customs-house-and-post-office-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8950/vr-photostudio</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1608/greek-philosophy-presocratic-part-1</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1194/stimulus</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1618/thermovr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6607/hybridization-theory-practice</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11749/zosu-zoo-home-passthrough-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8495/holoeyes-edu</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7650/deftxr-human-anatomy-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4869/sea-level-rise-explorer-long-beach</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13656/nae-danger-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12694/unsafe-entrance-and-exit-training</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12701/lifting-operations-training</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/560/entrenarse-demostracin-en-espaol</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/559/entrenarse-demo-english</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11844/vrew-physiotherapy-training-home-visit</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1696/civilization-builder</t>
+  </si>
+  <si>
+    <t>https://www.oculus.com/experiences/quest/2849273531812512/?ranking_trace=112223915002952_2849273531812512_SKYLINEWEB_84c9a199-f923-45d2-997a-1cda4a04268d</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4524/glue</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10634/mana-finance-for-gamers</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11626/decentraland-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10471/retreat</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/568/cash-printer</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/389/360-hazard-training</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/247/mobfish-vr-studio</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4933/momentx-metaverse</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10292/ucollex-crib</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8964/metagp</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10683/boche-meta-studio</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6591/villa-metaverse-terraforming-platform</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5962/zen-fighters</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12074/cronogods-metaverse</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6436/completion</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6927/spatial</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5579/seensio</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10347/snowx</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6176/vr-art-gallery</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3592/zen-republic-hq</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/33/art-gate-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4936/revomon-beta</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4620/relativity-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10776/funktropolis-metaverse</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15957/rooms-of-realities-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7116/multiverse</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15234/junglejumpers</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1523/cinevr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16055/singulive</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1245/sweet-escape-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11658/gibbon-gunk</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11334/figro</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17/rumii-for-oculus-quest-version-205</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9715/sense-tower</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/413/vr-workout</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3810/eva-quantica</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4833/myx-the-ultimate-virtual-party</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4764/vr-iat</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1281/bendingoaksvr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14646/rfox-valt</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10891/vr-puzzles</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6486/dive-vr-party-gamesdemo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15472/jk-xr-jedi-knight2-meta</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8093/omnytag</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11790/band-space</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14174/sky-strikers</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14822/drum-legend</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14959/shoothousevr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14141/underground-crash-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14993/gorilla-volleyball</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14994/gorilla-soccer-online</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14995/grab-the-tail</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15017/bullet-master-run</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15795/surf-tag-fall</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8071/castello-manfredonico-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/2349/atomu</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5490/espace-v</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1970/zofia-weiss-gallery</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5996/curatours</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5550/somewhere</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4899/hoppin</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4152/charm-vr-app</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9705/steps-of-privilege-beta</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5390/stageverse</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6086/plundering</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5695/ai-artathon-art-gallery</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15170/brite-light</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7144/vark</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13381/virtual-antiquities-museum</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5446/the-romanesque</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6682/mini-nepo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7472/the-cell</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6017/interactive-modern-room</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15706/it-could-be-nothing</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4928/solutionsville-asu</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1886/immune-u</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9176/livit-studio</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8691/vr-me-abandoning-ship</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8416/vr-me-man-overboard</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/2626/cubelingvr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8245/dissection-vr-for-students</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9999/vredu</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10049/reality-health-management-platform-for-chronic-pain</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3729/afternow-prez-beta</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14996/shopyverse</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10318/imers-crypto-trading-sim</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8343/highstreet-homes</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13141/metalityverse</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13260/astrodilogos-explorando-el-wenumapu</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9087/reviariskreview-logistique</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9548/infinito</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9748/immersive-now-espaa</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12565/vr-megusta</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15115/demo-bank</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8787/utopiavr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11818/metazombiesvr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4355/maloka</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14629/sph3re</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12347/skillveri-metaverse-workshop</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16356/chimp-world</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17816/xr-designer</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16872/spider-monke-remake</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17974/metatownfair</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/18062/project-fella</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6136/cluster</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10747/hollow</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7296/pokerstars-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9978/spark-ball-pool</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16026/drakheiralpha</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5926/embodimap</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6966/ecosphere</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10671/detour-bus-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1041/dream-channel-xr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9168/browzy-360-web-browser</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3806/lacanvr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1626/driftspace</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/359/high-seas</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16243/neiro-vr-meditation-series</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6511/door</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12898/beyondreal</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5287/omission-meeting</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15838/ovation</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13075/vraum-meet</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7829/hegias</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5049/connec2</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5354/envisionvr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1684/northumbria-spatial-experiment</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6932/vspatial</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5444/vive-sync</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3374/xspaces</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5592/multiverse</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3628/virtualspeech</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1098/dr-crumbs-school-for-disobedient-pets</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/643/black-holes-light-matter</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4651/galaxity</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11598/desktop-vision</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/357/virtualspeech-vr-courses</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17642/vervets</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/327/meu</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7118/tripp</t>
+  </si>
+  <si>
+    <t>1-Chimp-World</t>
+  </si>
+  <si>
+    <t>2-XR-Designer</t>
+  </si>
+  <si>
+    <t>3-Spider-Monke-Remake</t>
+  </si>
+  <si>
+    <t>4-metaTownFair</t>
+  </si>
+  <si>
+    <t>5-Project-Fella</t>
+  </si>
+  <si>
+    <t>6-cluster</t>
+  </si>
+  <si>
+    <t>7-Hollow</t>
+  </si>
+  <si>
+    <t>8-PokerStars-VR</t>
+  </si>
+  <si>
+    <t>9-SPARK-BALL-POOL</t>
+  </si>
+  <si>
+    <t>10-Drakheir-Alpha</t>
+  </si>
+  <si>
+    <t>11-EmbodiMap</t>
+  </si>
+  <si>
+    <t>12-ecosphere</t>
+  </si>
+  <si>
+    <t>13-Detour-Bus-Demo</t>
+  </si>
+  <si>
+    <t>14-Dream-Channel-XR</t>
+  </si>
+  <si>
+    <t>15-Browzy-360-Web-Browser</t>
+  </si>
+  <si>
+    <t>16-LacanVR</t>
+  </si>
+  <si>
+    <t>17-Driftspace</t>
+  </si>
+  <si>
+    <t>18-HIGH-SEAS</t>
+  </si>
+  <si>
+    <t>19-Neiro-VR-Meditation-Series</t>
+  </si>
+  <si>
+    <t>20-DOOR</t>
+  </si>
+  <si>
+    <t>21-Beyondreal</t>
+  </si>
+  <si>
+    <t>22-Omission-Meeting</t>
+  </si>
+  <si>
+    <t>23-Ovation</t>
+  </si>
+  <si>
+    <t>24-VRaum-Meet</t>
+  </si>
+  <si>
+    <t>25-HEGIAS</t>
+  </si>
+  <si>
+    <t>26-Connec2</t>
+  </si>
+  <si>
+    <t>27-EnvisionVR</t>
+  </si>
+  <si>
+    <t>28-Northumbria-Spatial-Experiment</t>
+  </si>
+  <si>
+    <t>29-vSpatial</t>
+  </si>
+  <si>
+    <t>30-VIVE-Sync</t>
+  </si>
+  <si>
+    <t>31-xSpaces</t>
+  </si>
+  <si>
+    <t>32-Multiverse2</t>
+  </si>
+  <si>
+    <t>33-VirtualSpeech</t>
+  </si>
+  <si>
+    <t>34-Dr-Crumbs-School-for-Disobedient-Pets</t>
+  </si>
+  <si>
+    <t>35-Black-Holes-Light-and-Matter</t>
+  </si>
+  <si>
+    <t>36-Galaxity</t>
+  </si>
+  <si>
+    <t>37-Desktop-Vision</t>
+  </si>
+  <si>
+    <t>38-VirtualSpeech-VR-Courses</t>
+  </si>
+  <si>
+    <t>39-Vervets</t>
+  </si>
+  <si>
+    <t>40-Meu</t>
+  </si>
+  <si>
+    <t>41-TRIPP</t>
+  </si>
+  <si>
+    <t>42-Funni-Chimp-Game</t>
+  </si>
+  <si>
+    <t>43-Mandrill-Vr</t>
+  </si>
+  <si>
+    <t>44-Polar-Rush</t>
+  </si>
+  <si>
+    <t>45-VR-ARENA-GAME</t>
+  </si>
+  <si>
+    <t>46-Pros-Tag</t>
+  </si>
+  <si>
+    <t>47-Monster-Rampage-VR</t>
+  </si>
+  <si>
+    <t>48-X8</t>
+  </si>
+  <si>
+    <t>49-Titans-Clinic-Demo</t>
+  </si>
+  <si>
+    <t>50-Project-Monkey</t>
+  </si>
+  <si>
+    <t>51-Ninja-Force</t>
+  </si>
+  <si>
+    <t>52-Project-purp</t>
+  </si>
+  <si>
+    <t>53-project-stretcher</t>
+  </si>
+  <si>
+    <t>54-Hexaverse-Adventures</t>
+  </si>
+  <si>
+    <t>55-QUANTAAR</t>
+  </si>
+  <si>
+    <t>56-Fox-Hunter</t>
+  </si>
+  <si>
+    <t>57-ChimpChaos</t>
+  </si>
+  <si>
+    <t>58-Mint-Tag</t>
+  </si>
+  <si>
+    <t>59-PROJECT-MOON</t>
+  </si>
+  <si>
+    <t>60-Monke-Rampage</t>
+  </si>
+  <si>
+    <t>61-Owl-Tag-Sea-Map</t>
+  </si>
+  <si>
+    <t>62-Monkey-Madness</t>
+  </si>
+  <si>
+    <t>63-Disuku</t>
+  </si>
+  <si>
+    <t>64-MONKIES-PLAYGROUND</t>
+  </si>
+  <si>
+    <t>65-Tiger-Tag</t>
+  </si>
+  <si>
+    <t>66-Running-Rascals</t>
+  </si>
+  <si>
+    <t>67-Monk-Runoff</t>
+  </si>
+  <si>
+    <t>68-Flsking-Flingos</t>
+  </si>
+  <si>
+    <t>69-Monkeys-Town</t>
+  </si>
+  <si>
+    <t>70-StarRaver</t>
+  </si>
+  <si>
+    <t>71-The-View</t>
+  </si>
+  <si>
+    <t>72-Chimps-life</t>
+  </si>
+  <si>
+    <t>73-Monke-Express</t>
+  </si>
+  <si>
+    <t>74-Baboon-Banans-Remake</t>
+  </si>
+  <si>
+    <t>75-Colobus</t>
+  </si>
+  <si>
+    <t>76-monkey-merchandise</t>
+  </si>
+  <si>
+    <t>77-Cartoon-Runners-VR</t>
+  </si>
+  <si>
+    <t>78-super-monkey-vr</t>
+  </si>
+  <si>
+    <t>79-KAIJU-KAOS-DEMO</t>
+  </si>
+  <si>
+    <t>80-Munk-Doodles</t>
+  </si>
+  <si>
+    <t>81-Decoy-Drop</t>
+  </si>
+  <si>
+    <t>82-Try-to-get-out</t>
+  </si>
+  <si>
+    <t>83-Skull-Tag</t>
+  </si>
+  <si>
+    <t>84-Rockin-robots</t>
+  </si>
+  <si>
+    <t>85-Orangutang-Tag</t>
+  </si>
+  <si>
+    <t>86-Monkeys-Hangout</t>
+  </si>
+  <si>
+    <t>87-Bunny-Fear</t>
+  </si>
+  <si>
+    <t>88-Monkeys-Hut</t>
+  </si>
+  <si>
+    <t>89-Monkey-Time-VR</t>
+  </si>
+  <si>
+    <t>90-Cat-Roams-VR-HORROR</t>
+  </si>
+  <si>
+    <t>91-Langur</t>
+  </si>
+  <si>
+    <t>92-BeVade-VR</t>
+  </si>
+  <si>
+    <t>93-Doggo Dash</t>
+  </si>
+  <si>
+    <t>94-Chimp-Chasers</t>
+  </si>
+  <si>
+    <t>95-Gibbon-Chasers</t>
+  </si>
+  <si>
+    <t>96-Monkey-paradise</t>
+  </si>
+  <si>
+    <t>97-VRAirHockey</t>
+  </si>
+  <si>
+    <t>98-major-monkeys</t>
+  </si>
+  <si>
+    <t>99-CoonTail-VR</t>
+  </si>
+  <si>
+    <t>100-Monkey-Hub</t>
+  </si>
+  <si>
+    <t>101-Sock-Monkeys</t>
+  </si>
+  <si>
+    <t>102-Stewie-Tag</t>
+  </si>
+  <si>
+    <t>103-monkey-motors</t>
+  </si>
+  <si>
+    <t>104-Monkey-Flyers</t>
+  </si>
+  <si>
+    <t>105-Ape-Break</t>
+  </si>
+  <si>
+    <t>106-Chimp-Hangout</t>
+  </si>
+  <si>
+    <t>107-jumping-monkes</t>
+  </si>
+  <si>
+    <t>108-Mind-Probe-VR</t>
+  </si>
+  <si>
+    <t>109-Complex-Gorilla</t>
+  </si>
+  <si>
+    <t>110-Monkey</t>
+  </si>
+  <si>
+    <t>111-Monkes-VR</t>
+  </si>
+  <si>
+    <t>112-Spider-Monke-Remake</t>
+  </si>
+  <si>
+    <t>113-Robotics-VR</t>
+  </si>
+  <si>
+    <t>114-Bad-Mischief</t>
+  </si>
+  <si>
+    <t>115-Simal-Gibbon</t>
+  </si>
+  <si>
+    <t>116-CyberTag</t>
+  </si>
+  <si>
+    <t>117-Monkey-House</t>
+  </si>
+  <si>
+    <t>118-Manke-Madness</t>
+  </si>
+  <si>
+    <t>119-monkey-run</t>
+  </si>
+  <si>
+    <t>120-The-Monkey-Family</t>
+  </si>
+  <si>
+    <t>121-Baboon-Tag</t>
+  </si>
+  <si>
+    <t>122-Monkey-Bonke</t>
+  </si>
+  <si>
+    <t>123-Gibbon-Life</t>
+  </si>
+  <si>
+    <t>124-CyperVR</t>
+  </si>
+  <si>
+    <t>125-Pizza-tag</t>
+  </si>
+  <si>
+    <t>126-Buff-Potatoes</t>
+  </si>
+  <si>
+    <t>127-dirty-monkeys</t>
+  </si>
+  <si>
+    <t>128-Spider-Monk-VR</t>
+  </si>
+  <si>
+    <t>129-robo-punch</t>
+  </si>
+  <si>
+    <t>130-Beach-Monkeys</t>
+  </si>
+  <si>
+    <t>131-Monke-Kingdom</t>
+  </si>
+  <si>
+    <t>132-Bean-Bouncers</t>
+  </si>
+  <si>
+    <t>133-Mingle-Monkeys-VR</t>
+  </si>
+  <si>
+    <t>134-Void-Tag</t>
+  </si>
+  <si>
+    <t>135-LoveSweet</t>
+  </si>
+  <si>
+    <t>136-CheekyChimpsV2</t>
+  </si>
+  <si>
+    <t>137-VR-Bowling</t>
+  </si>
+  <si>
+    <t>138-Banana-Bounce</t>
+  </si>
+  <si>
+    <t>139-Ace-Breakers-VR-Pickleball</t>
+  </si>
+  <si>
+    <t>140-Jaguar-Jumpers</t>
+  </si>
+  <si>
+    <t>141-Cozy-Tag</t>
+  </si>
+  <si>
+    <t>142-Vemaker</t>
+  </si>
+  <si>
+    <t>143-CAO-Piazza-Navona-Experience</t>
+  </si>
+  <si>
+    <t>144-Meta-Quest-TV</t>
+  </si>
+  <si>
+    <t>145-GYM-CLASS-BASKETBALL-VR</t>
+  </si>
+  <si>
+    <t>146-Stuck</t>
+  </si>
+  <si>
+    <t>147-Orcs-Creed-VR</t>
+  </si>
+  <si>
+    <t>148-The-Lost-Rupees-VR</t>
+  </si>
+  <si>
+    <t>149-Doggo-Dash</t>
+  </si>
+  <si>
+    <t>150-Fectar</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15030/funni-chimp-game</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15632/mandrill-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15816/polar-rush</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4049/vr-arena-game</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17295/pros-tag</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16758/monster-rampage-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16445/x8</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16453/titans-clinic-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17305/project-monkey</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16425/ninja-force</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16666/project-purp</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17206/project-stretcher</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15235/hexaverse-adventures</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17373/quantaar</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16005/fox-hunter-beta-still-in-testing</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16169/chimpchaos</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16111/mint-tag</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15901/project-moon</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16060/monke-rampage</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16573/owl-tag-sea-map</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16057/monkey-madness</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16533/disuku</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16407/monkies-playground</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15697/tiger-tag</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16855/running-rascals</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16047/monk-runoff</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16328/flsking-flingos</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15376/monkeys-town</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16662/starraver</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17915/the-view</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16604/chimps-life</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15790/monke-express</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17096/baboon-banans-remake</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15743/colobus</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16795/monkey-merchandise</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15468/cartoon-runners-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15393/super-monkey-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15966/kaiju-kaos-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17111/munk-doodles</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15830/decoy-drop</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15313/try-to-get-out</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16981/skull-tag</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16086/rockin-robots-beta</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15104/orangutang-tag</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13830/monkeys-hangout</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15656/bunny-fear</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16370/monkeys-hut</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15450/monkey-time-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15909/cat-roams-vr-horror</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16942/langur</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17682/bevade-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8233/doggo-dash</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14062/chimp-chasers-v2</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15711/gibbon-chasers</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15993/monkey-paradise</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4261/vrairhockey</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17048/major-monkeys</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16631/coontail-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16222/monkey-hub</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16007/sock-monkeys</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15467/stewie-tag</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15579/monkey-motors</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15388/monkey-flyers</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17173/ape-break</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17519/chimp-hangout</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16166/jumping-monkes</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17134/mind-probe-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16023/complex-gorilla</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16102/monkey</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16376/monkes-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14809/robotics-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17524/bad-mischief</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15889/simal-gibbon</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16559/cybertag</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17254/monkey-house</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15625/manke-madness</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17189/monkey-run</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17680/the-monkey-family</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17499/baboon-tag</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15254/monkey-bonke</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15252/gibbon-life</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17337/cypervr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15801/pizza-tag</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16405/buff-potatoes</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16161/dirty-monkeys</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17719/spider-monk-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17651/robo-punch</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17181/beach-monkeys</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15221/monke-kingdom</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15589/bean-bouncers-beta</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15456/mingle-monkeys-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15719/void-tag</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5725/lovesweet</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15532/cheekychimpsv2</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15336/vr-bowling</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16535/banana-bounce</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16630/ace-breakers-vr-pickleball</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16607/jaguar-jumpers</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13560/cozy-tag</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12524/vemaker</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10872/cao-piazza-navona-experience</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7293/meta-quest-tv</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1781/gym-class-basketball-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/404/stuck</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4925/orcs-creed-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/2196/the-lost-rupees-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6420/fectar</t>
+  </si>
+  <si>
+    <t>Art and Culture</t>
+  </si>
+  <si>
+    <t>151-NVRGIO</t>
+  </si>
+  <si>
+    <t>152-EMP-in-VR-Demo</t>
+  </si>
+  <si>
+    <t>153-StarRaver</t>
+  </si>
+  <si>
+    <t>154-Travelling-Landscapes-VR-Art-Experiments</t>
+  </si>
+  <si>
+    <t>155-PopUp-Limoilou</t>
+  </si>
+  <si>
+    <t>156-Tarsier</t>
+  </si>
+  <si>
+    <t>157-Chimp-Swingers</t>
+  </si>
+  <si>
+    <t>158-Flying-Monkey-Madness</t>
+  </si>
+  <si>
+    <t>159-AardvarkPrologue</t>
+  </si>
+  <si>
+    <t>160-Mindscape</t>
+  </si>
+  <si>
+    <t>161-Ynda-Art-Exhibition</t>
+  </si>
+  <si>
+    <t>162-Encounter-with-art-that-awakens-the-soul</t>
+  </si>
+  <si>
+    <t>163-Arthur</t>
+  </si>
+  <si>
+    <t>164-Voices-of-Inspiration</t>
+  </si>
+  <si>
+    <t>165-LIGHTNESS</t>
+  </si>
+  <si>
+    <t>166-HypnoComms</t>
+  </si>
+  <si>
+    <t>167-In-Dreams</t>
+  </si>
+  <si>
+    <t>168-MTGVR</t>
+  </si>
+  <si>
+    <t>169-MUVA</t>
+  </si>
+  <si>
+    <t>170-Twin-Creator</t>
+  </si>
+  <si>
+    <t>171-Le-vertige-des-autres</t>
+  </si>
+  <si>
+    <t>172-Chapel</t>
+  </si>
+  <si>
+    <t>173-Sculptering</t>
+  </si>
+  <si>
+    <t>174-Die-Rettung</t>
+  </si>
+  <si>
+    <t>175-Photogrammetry-scan-visualization</t>
+  </si>
+  <si>
+    <t>176-Z-Museum</t>
+  </si>
+  <si>
+    <t>177-Rebocando-o-Pavilhao-Philips</t>
+  </si>
+  <si>
+    <t>178-Disarmed</t>
+  </si>
+  <si>
+    <t>179-Bills-Attic</t>
+  </si>
+  <si>
+    <t>180-NOTES-ON-BLINDNESS</t>
+  </si>
+  <si>
+    <t>181-VRGOS-Worship-and-Praise-Music</t>
+  </si>
+  <si>
+    <t>182-The-Couch</t>
+  </si>
+  <si>
+    <t>183-Squirrel-Day</t>
+  </si>
+  <si>
+    <t>184-Blobby-VR</t>
+  </si>
+  <si>
+    <t>185-Radar-Deep</t>
+  </si>
+  <si>
+    <t>186-First-Grasps</t>
+  </si>
+  <si>
+    <t>187-SUPER-die-zweite-Schopfung</t>
+  </si>
+  <si>
+    <t>188-Robot-Frenzy</t>
+  </si>
+  <si>
+    <t>189-CoVince</t>
+  </si>
+  <si>
+    <t>190-One-Punch-A-Hole</t>
+  </si>
+  <si>
+    <t>191-Good-Music</t>
+  </si>
+  <si>
+    <t>192-GIGOIA-STUDIOS-CLASSIC-VR-ART-GALLERY</t>
+  </si>
+  <si>
+    <t>193-Lees-Valley</t>
+  </si>
+  <si>
+    <t>194-Prelicensure-Skills</t>
+  </si>
+  <si>
+    <t>195-Arena-Jam</t>
+  </si>
+  <si>
+    <t>196-Expedition-Nebraska-A-Natural-History-VR-Experience</t>
+  </si>
+  <si>
+    <t>197-GUN-HIT</t>
+  </si>
+  <si>
+    <t>198-Ball-Knight</t>
+  </si>
+  <si>
+    <t>199-People-and-State</t>
+  </si>
+  <si>
+    <t>200-VR-Roofer</t>
+  </si>
+  <si>
+    <t>201-The-Trip</t>
+  </si>
+  <si>
+    <t>202-Live-Educare</t>
+  </si>
+  <si>
+    <t>203-Self-Portrait</t>
+  </si>
+  <si>
+    <t>204-Warrior</t>
+  </si>
+  <si>
+    <t>205-Proteus-Labs</t>
+  </si>
+  <si>
+    <t>206-ReincarnationTravel</t>
+  </si>
+  <si>
+    <t>207-Alexandra-Buckle-Gallery</t>
+  </si>
+  <si>
+    <t>208-rooom</t>
+  </si>
+  <si>
+    <t>209-SB-129</t>
+  </si>
+  <si>
+    <t>210-goghear1031</t>
+  </si>
+  <si>
+    <t>211-MIrrorBall-VR</t>
+  </si>
+  <si>
+    <t>212-Moms-Art-Gallery</t>
+  </si>
+  <si>
+    <t>213-Bonobo-Chasers</t>
+  </si>
+  <si>
+    <t>214-Exit-Hell-VR</t>
+  </si>
+  <si>
+    <t>215-Graphics-Showcase</t>
+  </si>
+  <si>
+    <t>216-monkey-bussinesss</t>
+  </si>
+  <si>
+    <t>217-Dance-Loop</t>
+  </si>
+  <si>
+    <t>218-Swing</t>
+  </si>
+  <si>
+    <t>219-Steins-VR-Museum</t>
+  </si>
+  <si>
+    <t>220-Inami-Wood-Carving-Gallery</t>
+  </si>
+  <si>
+    <t>221-Maria-Blanchard-VRGallery</t>
+  </si>
+  <si>
+    <t>222-MOOD</t>
+  </si>
+  <si>
+    <t>223-Topos-Rotunda</t>
+  </si>
+  <si>
+    <t>224-Color-from-Summer</t>
+  </si>
+  <si>
+    <t>225-Digital-Pierrot-Museum</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16705/nvrgio</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16787/emp-in-vr-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16902/travelling-landscapes-vr-art-experiments</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16656/popup-limoilou</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16638/tarsier</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17083/flying-monkey-madness</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5395/aard-v-ark-prologue</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3546/mindscape</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3714/ynda-art-exhibition</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5971/encounter-with-art-that-awakens-the-soul</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6675/arthur</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5584/voices-of-inspiration</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/421/lightness</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8030/hypnocomms</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5884/in-dreams</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11062/mtgvr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7633/muva</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14347/twin-creator</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/2692/le-vertige-des-autres</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10927/chapel</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4072/sculptering</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1263/die-rettung</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15570/photogrammetry-scan-visualization-passthrough-on-quest-2</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12784/z-museum</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/2226/rebocando-o-pavilho-philips</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7486/disarmed</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12838/bills-attic</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5775/notes-on-blindness</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11081/vrgos-worship-praise-music</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4626/the-couch</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17407/squirrel-day</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5917/blobby-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10247/radar-deep</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12215/first-grasps</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5332/super-die-zweite-schopfung</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16255/robot-frenzy</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6368/covince</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/14677/one-punch-a-hole</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11672/good-music</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/374/gigoia-studios-classic-vr-art-gallery</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6661/lees-valley</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11478/prelicensure-skills</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16265/arena-jam</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10367/expedition-nebraska-a-natural-history-vr-experience</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12271/gun-hit</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3268/ball-knight</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5554/people-and-state</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17161/vr-roofer</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10128/the-trip</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1828/live-educare</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8537/self-portrait</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3023/warrior</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9793/proteus-labs</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5752/reincarnationtravel</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7098/alexandra-buckle-gallery</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11359/rooom</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12877/sb-129</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11417/goghear1031</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10846/mirrorball-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13617/moms-art-gallery</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15003/bonobo-chasers</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13159/exit-hell-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13740/graphics-showcase</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13990/monkey-bussinesss</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13452/dance-loop</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13930/swing</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7627/steins-vr-museum</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10759/inami-wood-carving-gallery</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9445/maria-blanchard-vrgallery</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7137/mood</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7622/topos-rotunda</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9366/color-from-summer</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9320/digital-pierrot-museum</t>
+  </si>
+  <si>
+    <t>226-StudyinRomania-Journey</t>
+  </si>
+  <si>
+    <t>227-Feeder-Protection-Relay-Training</t>
+  </si>
+  <si>
+    <t>228-Oxford-Medical-Simulation</t>
+  </si>
+  <si>
+    <t>229-XR-Guru</t>
+  </si>
+  <si>
+    <t>230-EducationXR</t>
+  </si>
+  <si>
+    <t>231-VREW-VR-Education-World</t>
+  </si>
+  <si>
+    <t>232-Oculus-Virtual-Reality-Anatomy-and-Body-Systems-Educational-VR-Experience</t>
+  </si>
+  <si>
+    <t>233-Mocap-Fusion-VR-Finger-Tracking-Addon</t>
+  </si>
+  <si>
+    <t>234-TrashSorting</t>
+  </si>
+  <si>
+    <t>235-Control-of-Risk</t>
+  </si>
+  <si>
+    <t>236-Mechanical-Lift</t>
+  </si>
+  <si>
+    <t>237-Deutsches-Rotes-Kreuz-VR</t>
+  </si>
+  <si>
+    <t>238-VREW-VD-Academy-VR-Basics-Tutorial</t>
+  </si>
+  <si>
+    <t>239-Waddle-A-Penguins-Tale</t>
+  </si>
+  <si>
+    <t>240-Ultrasound-Examination-Training</t>
+  </si>
+  <si>
+    <t>241-Lexrn-Teacher-App-For-Teacher</t>
+  </si>
+  <si>
+    <t>242-VREW-Storage-Worker-Simulation</t>
+  </si>
+  <si>
+    <t>243-VREW-Pipebender-VR</t>
+  </si>
+  <si>
+    <t>244-VREW-Employer-Feedback-Simulation-DEMO</t>
+  </si>
+  <si>
+    <t>245-VREW-Psychology-Phobias</t>
+  </si>
+  <si>
+    <t>246-VREW-PrintMaster-XR</t>
+  </si>
+  <si>
+    <t>247-Tadpoles</t>
+  </si>
+  <si>
+    <t>248-Extinguish-Fire-Extinguisher-Training</t>
+  </si>
+  <si>
+    <t>249-From-Munoz-School-to-the-Moon</t>
+  </si>
+  <si>
+    <t>250-Passthrough-Neuroanatomy</t>
+  </si>
+  <si>
+    <t>251-MARLA-Masters-of-Malfunction</t>
+  </si>
+  <si>
+    <t>252-Sea-Level-Rise-Explorer-Elkhorn-Slough</t>
+  </si>
+  <si>
+    <t>253-Warp-VR</t>
+  </si>
+  <si>
+    <t>254-Pre-operative-anxiety</t>
+  </si>
+  <si>
+    <t>255-10-places-awaiting-Tunnel-Evacuation-and-Amazon-gift-card</t>
+  </si>
+  <si>
+    <t>256-Machine-Inspector</t>
+  </si>
+  <si>
+    <t>257-CRANES-4.0-VR-for-training</t>
+  </si>
+  <si>
+    <t>258-Medicalholodecks-Dissection-Master-XR</t>
+  </si>
+  <si>
+    <t>259-Sea-Level-Rise-Explorer-West-Palm-Beach</t>
+  </si>
+  <si>
+    <t>260-VR-Brain-Exploration</t>
+  </si>
+  <si>
+    <t>261-EON-XR</t>
+  </si>
+  <si>
+    <t>262-Loop-Metaverse</t>
+  </si>
+  <si>
+    <t>263-BeaconLand</t>
+  </si>
+  <si>
+    <t>264-Autonomic-Nervous-System-Simulator</t>
+  </si>
+  <si>
+    <t>265-Climate-Change-Pinball</t>
+  </si>
+  <si>
+    <t>266-MeemAin-Game</t>
+  </si>
+  <si>
+    <t>267-Holoeyes-XR</t>
+  </si>
+  <si>
+    <t>268-The-Hydrous-presents-EXPLORE</t>
+  </si>
+  <si>
+    <t>269-Builders-Risk</t>
+  </si>
+  <si>
+    <t>270-hopohopo</t>
+  </si>
+  <si>
+    <t>271-MGA</t>
+  </si>
+  <si>
+    <t>272-Historias-del-Eden</t>
+  </si>
+  <si>
+    <t>273-Holomia</t>
+  </si>
+  <si>
+    <t>274-Rove-VR</t>
+  </si>
+  <si>
+    <t>275-ParasitesVR</t>
+  </si>
+  <si>
+    <t>276-BRITCOVERSE</t>
+  </si>
+  <si>
+    <t>277-VECOS</t>
+  </si>
+  <si>
+    <t>278-The-Trip</t>
+  </si>
+  <si>
+    <t>279-Phusicos-VR</t>
+  </si>
+  <si>
+    <t>280-Solids-&amp;-Shadows-VR-beta</t>
+  </si>
+  <si>
+    <t>281-Estrelas-do-Deserto-VR</t>
+  </si>
+  <si>
+    <t>282-Dr-Quicke-and-the-Dead</t>
+  </si>
+  <si>
+    <t>283-Sea-Level-Rise-Explorer-Turner-Station</t>
+  </si>
+  <si>
+    <t>284-VREW-Job-Interview-Simulation-DEMO</t>
+  </si>
+  <si>
+    <t>285-VREW-Soft-Ice-Cream-Machine-Maintenance-Simulation</t>
+  </si>
+  <si>
+    <t>286-Husker-STEM-VR</t>
+  </si>
+  <si>
+    <t>287-ForestryVR</t>
+  </si>
+  <si>
+    <t>288-Digestive-System-VR</t>
+  </si>
+  <si>
+    <t>289-VREW-INNER-VISIONS</t>
+  </si>
+  <si>
+    <t>290-Color-Invader</t>
+  </si>
+  <si>
+    <t>291-Ideal-Red</t>
+  </si>
+  <si>
+    <t>292-LUXUS</t>
+  </si>
+  <si>
+    <t>293-VR-ME-Fire-In-The-Engine-Room</t>
+  </si>
+  <si>
+    <t>294-VREW-Cashier-Training-Simulation</t>
+  </si>
+  <si>
+    <t>295-Laser-Quiz-3000</t>
+  </si>
+  <si>
+    <t>296-Virtual-Work-Experience</t>
+  </si>
+  <si>
+    <t>297-Cajals-Dream</t>
+  </si>
+  <si>
+    <t>298-Soundela-Beta</t>
+  </si>
+  <si>
+    <t>299-Place-VR-Mindfulness</t>
+  </si>
+  <si>
+    <t>300-Alpha-Dragon</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11624/studyinromania-journey</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3167/feeder-protection-relay-training</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12857/oxford-medical-simulation</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3130/xr-guru</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3683/educationxr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11883/vrew-vr-education-world</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/2807/oculus-virtual-reality-anatomy-and-body-systems-educational-vr-experience</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/2236/mocap-fusion-vr-finger-tracking-addon</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16780/trashsorting</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16723/control-of-risk</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17176/mechanical-lift</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16653/deutsches-rotes-kreuz-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15980/vrew-vd-academy-vr-basics-tutorial</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15420/waddle-a-penguins-tale</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15951/ultrasound-examination-training-free</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/17594/lexrn-teacher-app-for-teacher</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11990/vrew-storage-worker-simulation</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16779/vrew-pipebender-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11993/vrew-employer-feedback-simulation-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11995/vrew-psychology-phobias</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15607/vrew-printmaster-xr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/2521/tadpoles</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11856/extinguish-fire-extinguisher-training</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7869/from-muoz-school-to-the-moon</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6706/passthrough-neuroanatomy</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6520/marla-masters-of-malfunction</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3783/sea-level-rise-explorer-elkhorn-slough</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/490/warp-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6408/pre-operative-anxiety</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1414/10-places-awaiting-tunnel-evacuation-and-amazon-gift-card</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/545/machine-inspector</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10869/cranes-40-vr-for-training</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9672/medicalholodecks-dissection-master-xr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/16212/sea-level-rise-explorer-west-palm-beach</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5442/vr-brain-exploration</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1419/eon-xr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10900/loop-metaverse</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6564/beaconland</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3847/autonomic-nervous-system-simulator</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/5888/climate-change-pinball</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1372/meemain-game</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/1167/holoeyes-xr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10021/the-hydrous-presents-explore</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11732/builders-risk</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11682/hopohopo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6855/mga</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/9557/historias-del-eden</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7626/holomia</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/6779/rove-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/4473/parasitesvr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/13974/britcoverse</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15028/vecos</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/15843/phusicos-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10913/solids-shadows-vr-beta</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10563/estrelas-do-deserto-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11801/dr-quicke-and-the-dead</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11082/sea-level-rise-explorer-turner-station</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11994/vrew-job-interview-simulation-demo</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11981/vrew-soft-ice-cream-machine-maintenance-simulation</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7978/husker-stem-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/12329/forestryvr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10638/digestive-system-vr</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11977/vrew-inner-visions</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10291/color-invader</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7492/ideal-red</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7880/luxus</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/8546/vr-me-fire-in-the-engine-room</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11983/vrew-cashier-training-simulation</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/3186/laser-quiz-3000</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11072/virtual-work-experience</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/7951/cajals-dream</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/11636/soundela-beta</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/10050/place-vr-mindfulness</t>
+  </si>
+  <si>
+    <t>https://sidequestvr.com/app/2097/alpha-dragon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,14 +3054,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -690,6 +3073,52 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -708,28 +3137,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{E47B64D3-B1B3-4357-A4DE-94509B8F22E0}"/>
+    <cellStyle name="超链接 2" xfId="2" xr:uid="{D60E7CD9-5C2B-4938-8B6B-EBDD9B1262CC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -745,7 +3202,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1041,16 +3498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A5DC7-2E20-4010-AC25-F88A553F42EB}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="B483" sqref="B483"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44" style="2" customWidth="1"/>
     <col min="3" max="3" width="63.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
@@ -1058,1968 +3515,5776 @@
     <col min="7" max="7" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="1" customFormat="1">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="1" customFormat="1">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="1" customFormat="1">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="1" customFormat="1">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="1" customFormat="1">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="1" customFormat="1">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="1" customFormat="1">
       <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1">
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="B28" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>18</v>
       </c>
       <c r="B32" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>18</v>
       </c>
       <c r="B36" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>205</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>18</v>
       </c>
       <c r="B39" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>18</v>
       </c>
       <c r="B40" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>18</v>
       </c>
       <c r="B41" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="1"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>449</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="1"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>450</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="1"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>451</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="1"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="1"/>
+    <row r="46" spans="1:7">
+      <c r="A46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>453</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="1"/>
+    <row r="47" spans="1:7">
+      <c r="A47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>454</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="1"/>
+    <row r="48" spans="1:7">
+      <c r="A48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>455</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="1"/>
+    <row r="49" spans="1:7">
+      <c r="A49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>456</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="1"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>457</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="1"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>458</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="1"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>462</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="1"/>
+    <row r="56" spans="1:7">
+      <c r="A56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>463</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="1"/>
+    <row r="57" spans="1:7">
+      <c r="A57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>464</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="1"/>
+    <row r="58" spans="1:7">
+      <c r="A58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>465</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="1"/>
+    <row r="59" spans="1:7">
+      <c r="A59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>466</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="1"/>
+    <row r="60" spans="1:7">
+      <c r="A60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>467</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="1"/>
+    <row r="61" spans="1:7">
+      <c r="A61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>468</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="1"/>
+    <row r="62" spans="1:7">
+      <c r="A62" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>469</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="1"/>
+    <row r="63" spans="1:7">
+      <c r="A63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>470</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="1"/>
+    <row r="64" spans="1:7">
+      <c r="A64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>471</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="1"/>
+    <row r="65" spans="1:7">
+      <c r="A65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>472</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="2"/>
+    <row r="66" spans="1:7">
+      <c r="A66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>473</v>
+      </c>
       <c r="D66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="1"/>
+    <row r="67" spans="1:7">
+      <c r="A67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>474</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" s="1"/>
+    <row r="68" spans="1:7">
+      <c r="A68" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>475</v>
+      </c>
       <c r="D68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C69" s="1"/>
+    <row r="69" spans="1:7">
+      <c r="A69" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>476</v>
+      </c>
       <c r="D69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>31</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="1"/>
+    <row r="70" spans="1:7">
+      <c r="A70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>477</v>
+      </c>
       <c r="D70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C71" s="1"/>
+    <row r="71" spans="1:7">
+      <c r="A71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>478</v>
+      </c>
       <c r="D71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C72" s="1"/>
+    <row r="72" spans="1:7">
+      <c r="A72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>479</v>
+      </c>
       <c r="D72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>31</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="2"/>
+    <row r="73" spans="1:7">
+      <c r="A73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>480</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" s="1"/>
+    <row r="74" spans="1:7">
+      <c r="A74" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>481</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C75" s="2"/>
+    <row r="75" spans="1:7">
+      <c r="A75" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>482</v>
+      </c>
       <c r="D75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C76" s="2"/>
+    <row r="76" spans="1:7">
+      <c r="A76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>483</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" s="3"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>31</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="3"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>33</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="1"/>
+    <row r="77" spans="1:7">
+      <c r="A77" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>489</v>
+      </c>
       <c r="D82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>33</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="D83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>33</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="D84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>33</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="D85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>33</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C86" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="D86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="D87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>33</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C88" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="D88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>33</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="D89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C90" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="D90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C91" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="D91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C92" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="D92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="D93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>33</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="D94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C95" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="D95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>33</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C96" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="D96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>33</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C97" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="D97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>33</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C98" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="D98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>33</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="D99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>33</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C100" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="D100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>33</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C101" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="D101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>33</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D102" s="3"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>33</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="3"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>33</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C104" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="D104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>33</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="D105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>33</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C106" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="D106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>33</v>
-      </c>
-      <c r="B107" t="s">
-        <v>153</v>
-      </c>
-      <c r="C107" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="D107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>33</v>
-      </c>
-      <c r="B108" t="s">
-        <v>154</v>
-      </c>
-      <c r="C108" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="D108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>33</v>
-      </c>
-      <c r="B109" t="s">
-        <v>155</v>
-      </c>
-      <c r="C109" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="D109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>33</v>
-      </c>
-      <c r="B110" t="s">
-        <v>156</v>
-      </c>
-      <c r="C110" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="D110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>33</v>
-      </c>
-      <c r="B111" t="s">
-        <v>157</v>
-      </c>
-      <c r="C111" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="D111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>33</v>
-      </c>
-      <c r="B112" t="s">
-        <v>158</v>
-      </c>
-      <c r="C112" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="D112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>33</v>
-      </c>
-      <c r="B113" t="s">
-        <v>159</v>
-      </c>
-      <c r="C113" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="D113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>33</v>
-      </c>
-      <c r="B114" t="s">
-        <v>160</v>
-      </c>
-      <c r="C114" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="D114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>33</v>
-      </c>
-      <c r="B115" t="s">
-        <v>161</v>
-      </c>
-      <c r="C115" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="D115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>33</v>
-      </c>
-      <c r="B116" t="s">
-        <v>162</v>
-      </c>
-      <c r="C116" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>33</v>
-      </c>
-      <c r="B117" t="s">
-        <v>163</v>
-      </c>
-      <c r="C117" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>33</v>
-      </c>
-      <c r="B118" t="s">
-        <v>204</v>
-      </c>
-      <c r="C118" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>33</v>
-      </c>
-      <c r="B119" t="s">
-        <v>203</v>
-      </c>
-      <c r="C119" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="D119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120" t="s">
-        <v>164</v>
-      </c>
-      <c r="C120" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>33</v>
-      </c>
-      <c r="B121" t="s">
-        <v>165</v>
-      </c>
-      <c r="C121" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>47</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C122" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D122" s="1"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>47</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C123" s="1"/>
+    <row r="123" spans="1:7">
+      <c r="A123" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>599</v>
+      </c>
       <c r="D123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>47</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" s="1"/>
+    <row r="124" spans="1:7">
+      <c r="A124" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>600</v>
+      </c>
       <c r="D124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>47</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" s="1"/>
+    <row r="125" spans="1:7">
+      <c r="A125" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>601</v>
+      </c>
       <c r="D125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>47</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" s="1"/>
+    <row r="126" spans="1:7">
+      <c r="A126" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>602</v>
+      </c>
       <c r="D126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>47</v>
-      </c>
-      <c r="B127" s="4" t="s">
+    <row r="127" spans="1:7">
+      <c r="A127" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C170" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C171" s="15" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C175" s="15" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C190" s="15" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="C191" s="15" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C195" s="15" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="C209" s="15" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C210" s="15" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="C211" s="15" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="C212" s="15" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="C213" s="15" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C214" s="15" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B215" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C215" s="15" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="C216" s="15" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="C217" s="15" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="C218" s="15" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B219" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="C219" s="15" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C220" s="15" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="C221" s="15" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B222" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="C222" s="15" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="C223" s="15" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="C225" s="15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="C227" s="15" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C229" s="15" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>33</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>33</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>33</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>33</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>33</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>33</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>33</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>33</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>33</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>33</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>33</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>33</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>33</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>33</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>33</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>33</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>33</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>33</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>33</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>33</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>33</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>33</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>33</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>33</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>33</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>33</v>
+      </c>
+      <c r="B257" t="s">
+        <v>153</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>33</v>
+      </c>
+      <c r="B258" t="s">
+        <v>154</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>33</v>
+      </c>
+      <c r="B259" t="s">
+        <v>155</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>33</v>
+      </c>
+      <c r="B260" t="s">
+        <v>156</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>33</v>
+      </c>
+      <c r="B261" t="s">
+        <v>157</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>33</v>
+      </c>
+      <c r="B262" t="s">
+        <v>158</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>33</v>
+      </c>
+      <c r="B263" t="s">
+        <v>159</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>33</v>
+      </c>
+      <c r="B264" t="s">
+        <v>160</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>33</v>
+      </c>
+      <c r="B265" t="s">
+        <v>161</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>33</v>
+      </c>
+      <c r="B266" t="s">
+        <v>162</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>33</v>
+      </c>
+      <c r="B267" t="s">
+        <v>163</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>33</v>
+      </c>
+      <c r="B268" t="s">
+        <v>204</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>33</v>
+      </c>
+      <c r="B269" t="s">
+        <v>203</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>33</v>
+      </c>
+      <c r="B270" t="s">
+        <v>164</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>33</v>
+      </c>
+      <c r="B271" t="s">
+        <v>165</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B272" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="C272" s="20" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B273" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B274" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="C274" s="20" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B275" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="C275" s="20" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B276" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="C276" s="20" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B277" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="C277" s="20" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B278" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="C278" s="20" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B279" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="C279" s="20" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B280" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="C280" s="20" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B281" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="C281" s="20" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B282" s="18" t="s">
+        <v>717</v>
+      </c>
+      <c r="C282" s="20" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B283" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="C283" s="20" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B284" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="C284" s="20" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B285" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="C285" s="20" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B286" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="C286" s="20" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B287" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="C287" s="20" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B288" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="C288" s="20" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B289" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="C289" s="20" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B290" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="C290" s="20" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B291" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="C291" s="20" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B292" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="C292" s="20" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B293" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="C293" s="20" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B294" s="18" t="s">
+        <v>729</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B295" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="C295" s="20" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B296" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="C296" s="20" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B297" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="C297" s="20" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B298" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="C298" s="20" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B299" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="C299" s="20" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B300" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="C300" s="20" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B301" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B302" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="C302" s="20" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B303" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="C303" s="20" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B304" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="C304" s="20" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B305" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="C305" s="20" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B306" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="C306" s="20" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B307" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="C307" s="20" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B308" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="C308" s="20" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B309" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="C309" s="20" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B310" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="C310" s="20" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B311" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="C311" s="20" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B312" s="18" t="s">
+        <v>747</v>
+      </c>
+      <c r="C312" s="20" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B313" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="C313" s="20" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B314" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="C314" s="20" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B315" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="C315" s="20" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B316" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="C316" s="20" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B317" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="C317" s="20" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B318" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="C318" s="20" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B319" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="C319" s="20" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B320" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="C320" s="20" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B321" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="C321" s="20" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B322" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="C322" s="20" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B323" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="C323" s="20" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B324" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="C324" s="20" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B325" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="C325" s="20" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B326" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="C326" s="20" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B327" s="18" t="s">
+        <v>762</v>
+      </c>
+      <c r="C327" s="20" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B328" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="C328" s="20" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B329" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="C329" s="20" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B330" s="18" t="s">
+        <v>765</v>
+      </c>
+      <c r="C330" s="20" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B331" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="C331" s="20" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="B332" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="C332" s="22" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B333" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="C333" s="20" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B334" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="C334" s="20" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B335" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="C335" s="20" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B336" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="C336" s="20" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B337" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="C337" s="20" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B338" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="C338" s="20" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B339" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="C339" s="20" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B340" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="C340" s="20" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B341" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="C341" s="20" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B342" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="C342" s="20" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B343" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="C343" s="21" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B344" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="C344" s="20" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B345" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="C345" s="20" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B346" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="C346" s="20" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>47</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>47</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>47</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>47</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>47</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>47</v>
+      </c>
+      <c r="B352" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>47</v>
-      </c>
-      <c r="B128" s="3" t="s">
+      <c r="C352" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>47</v>
+      </c>
+      <c r="B353" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>47</v>
-      </c>
-      <c r="B129" s="3" t="s">
+      <c r="C353" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>47</v>
+      </c>
+      <c r="B354" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>47</v>
-      </c>
-      <c r="B130" s="3" t="s">
+      <c r="C354" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>47</v>
+      </c>
+      <c r="B355" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>47</v>
-      </c>
-      <c r="B131" s="4" t="s">
+      <c r="C355" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>47</v>
+      </c>
+      <c r="B356" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>47</v>
-      </c>
-      <c r="B132" s="5" t="s">
+      <c r="C356" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>47</v>
+      </c>
+      <c r="B357" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>47</v>
-      </c>
-      <c r="B133" s="4" t="s">
+      <c r="C357" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>47</v>
+      </c>
+      <c r="B358" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>47</v>
-      </c>
-      <c r="B134" s="6" t="s">
+      <c r="C358" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="16.5">
+      <c r="A359" t="s">
+        <v>47</v>
+      </c>
+      <c r="B359" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>47</v>
-      </c>
-      <c r="B135" s="4" t="s">
+      <c r="C359" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>47</v>
+      </c>
+      <c r="B360" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>47</v>
-      </c>
-      <c r="B136" s="5" t="s">
+      <c r="C360" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>47</v>
+      </c>
+      <c r="B361" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>47</v>
-      </c>
-      <c r="B137" s="4" t="s">
+      <c r="C361" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>47</v>
+      </c>
+      <c r="B362" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>47</v>
-      </c>
-      <c r="B138" s="4" t="s">
+      <c r="C362" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>47</v>
+      </c>
+      <c r="B363" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>47</v>
-      </c>
-      <c r="B139" s="5" t="s">
+      <c r="C363" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>47</v>
+      </c>
+      <c r="B364" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>47</v>
-      </c>
-      <c r="B140" s="3" t="s">
+      <c r="C364" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>47</v>
+      </c>
+      <c r="B365" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>47</v>
-      </c>
-      <c r="B141" s="3" t="s">
+      <c r="C365" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>47</v>
+      </c>
+      <c r="B366" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>47</v>
-      </c>
-      <c r="B142" s="3" t="s">
+      <c r="C366" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>47</v>
+      </c>
+      <c r="B367" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>47</v>
-      </c>
-      <c r="B143" s="3" t="s">
+      <c r="C367" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>47</v>
+      </c>
+      <c r="B368" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>47</v>
-      </c>
-      <c r="B144" s="3" t="s">
+      <c r="C368" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>47</v>
+      </c>
+      <c r="B369" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>47</v>
-      </c>
-      <c r="B145" s="3" t="s">
+      <c r="C369" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>47</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>47</v>
-      </c>
-      <c r="B146" s="3" t="s">
+      <c r="C370" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>47</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>47</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="C371" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>47</v>
+      </c>
+      <c r="B372" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>47</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="C372" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>47</v>
+      </c>
+      <c r="B373" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>47</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="C373" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>47</v>
+      </c>
+      <c r="B374" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>47</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="C374" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>47</v>
+      </c>
+      <c r="B375" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>47</v>
-      </c>
-      <c r="B151" s="3" t="s">
+      <c r="C375" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>47</v>
+      </c>
+      <c r="B376" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>47</v>
-      </c>
-      <c r="B152" t="s">
+      <c r="C376" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>47</v>
+      </c>
+      <c r="B377" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>47</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="C377" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>47</v>
+      </c>
+      <c r="B378" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>47</v>
-      </c>
-      <c r="B154" t="s">
+      <c r="C378" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>47</v>
+      </c>
+      <c r="B379" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>47</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="C379" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>47</v>
+      </c>
+      <c r="B380" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>47</v>
-      </c>
-      <c r="B156" t="s">
+      <c r="C380" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>47</v>
+      </c>
+      <c r="B381" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>47</v>
-      </c>
-      <c r="B157" t="s">
+      <c r="C381" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>47</v>
+      </c>
+      <c r="B382" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>47</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="C382" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>47</v>
+      </c>
+      <c r="B383" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>47</v>
-      </c>
-      <c r="B159" t="s">
+      <c r="C383" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>47</v>
+      </c>
+      <c r="B384" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>47</v>
-      </c>
-      <c r="B160" t="s">
+      <c r="C384" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>47</v>
+      </c>
+      <c r="B385" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>47</v>
-      </c>
-      <c r="B161" t="s">
+      <c r="C385" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>47</v>
+      </c>
+      <c r="B386" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="C386" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B387" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="C387" s="26" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B388" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="C388" s="26" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B389" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="C389" s="26" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B390" s="24" t="s">
+        <v>858</v>
+      </c>
+      <c r="C390" s="26" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B391" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="C391" s="26" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B392" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="C392" s="26" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B393" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="C393" s="26" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B394" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="C394" s="26" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B395" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="C395" s="26" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B396" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="C396" s="26" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B397" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="C397" s="26" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B398" s="24" t="s">
+        <v>866</v>
+      </c>
+      <c r="C398" s="26" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B399" s="24" t="s">
+        <v>867</v>
+      </c>
+      <c r="C399" s="26" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B400" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="C400" s="26" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B401" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="C401" s="26" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B402" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="C402" s="26" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B403" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="C403" s="26" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B404" s="24" t="s">
+        <v>872</v>
+      </c>
+      <c r="C404" s="26" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B405" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="C405" s="26" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B406" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="C406" s="26" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B407" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="C407" s="26" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B408" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="C408" s="26" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B409" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="C409" s="26" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B410" s="24" t="s">
+        <v>878</v>
+      </c>
+      <c r="C410" s="26" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B411" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="C411" s="26" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B412" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="C412" s="26" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B413" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="C413" s="26" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B414" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="C414" s="26" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B415" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="C415" s="26" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B416" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="C416" s="26" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B417" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="C417" s="26" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B418" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="C418" s="26" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B419" s="24" t="s">
+        <v>887</v>
+      </c>
+      <c r="C419" s="26" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B420" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="C420" s="26" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B421" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="C421" s="26" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B422" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="C422" s="26" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B423" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="C423" s="26" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B424" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="C424" s="26" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B425" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="C425" s="26" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B426" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="C426" s="26" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B427" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="C427" s="26" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B428" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="C428" s="26" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B429" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="C429" s="26" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B430" s="24" t="s">
+        <v>898</v>
+      </c>
+      <c r="C430" s="26" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B431" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="C431" s="26" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B432" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="C432" s="26" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B433" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="C433" s="26" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B434" s="24" t="s">
+        <v>902</v>
+      </c>
+      <c r="C434" s="26" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B435" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="C435" s="26" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B436" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="C436" s="26" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B437" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="C437" s="26" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B438" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="C438" s="26" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B439" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="C439" s="26" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B440" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="C440" s="26" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B441" s="24" t="s">
+        <v>909</v>
+      </c>
+      <c r="C441" s="26" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B442" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="C442" s="26" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B443" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="C443" s="26" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B444" s="24" t="s">
+        <v>912</v>
+      </c>
+      <c r="C444" s="26" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B445" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="C445" s="26" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B446" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="C446" s="26" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B447" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="C447" s="26" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B448" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="C448" s="26" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B449" s="24" t="s">
+        <v>917</v>
+      </c>
+      <c r="C449" s="26" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B450" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="C450" s="26" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B451" s="25" t="s">
+        <v>919</v>
+      </c>
+      <c r="C451" s="26" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B452" s="24" t="s">
+        <v>920</v>
+      </c>
+      <c r="C452" s="26" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B453" s="24" t="s">
+        <v>921</v>
+      </c>
+      <c r="C453" s="26" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B454" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="C454" s="26" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B455" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="C455" s="26" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B456" s="24" t="s">
+        <v>924</v>
+      </c>
+      <c r="C456" s="26" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B457" s="24" t="s">
+        <v>925</v>
+      </c>
+      <c r="C457" s="26" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B458" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="C458" s="26" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B459" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="C459" s="26" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B460" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="C460" s="26" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B461" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="C461" s="26" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
         <v>61</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B462" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="C462" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
         <v>61</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B463" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="C463" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
         <v>61</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B464" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="C464" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
         <v>61</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B465" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="C465" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
         <v>61</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B466" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="C466" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
         <v>61</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B467" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="C467" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
         <v>61</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B468" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="C468" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
         <v>61</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B469" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="C469" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
         <v>61</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B470" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="C470" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
         <v>61</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B471" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="C471" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
         <v>61</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B472" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="C472" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
         <v>61</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B473" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="C473" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
         <v>61</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B474" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="C474" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
         <v>61</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B475" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="C475" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
         <v>61</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B476" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="C476" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
         <v>61</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B477" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="C477" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
         <v>61</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B478" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="C478" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
         <v>61</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B479" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="C479" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
         <v>61</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B480" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="C480" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
         <v>61</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B481" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="C481" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
         <v>61</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B482" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="C482" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
         <v>61</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B483" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="C483" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
         <v>61</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B484" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="C484" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
         <v>61</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B485" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="C485" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
         <v>61</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B486" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="C486" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
         <v>61</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B487" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="C487" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
         <v>61</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B488" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="C488" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
         <v>61</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B489" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="C489" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
         <v>61</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B490" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="C490" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
         <v>61</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B491" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="C491" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
         <v>61</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B492" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="C492" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
         <v>61</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B493" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="C493" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
         <v>61</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B494" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="C494" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
         <v>61</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B495" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="C495" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
         <v>61</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B496" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="C496" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
         <v>61</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B497" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="C497" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
         <v>61</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B498" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="C498" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
         <v>61</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B499" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="C499" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
         <v>61</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B500" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="C500" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
         <v>61</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B501" t="s">
         <v>202</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
